--- a/data/evaluation/evaluation_North_Spring_Turnip.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Turnip.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1552.794973544974</v>
+        <v>1185.021164021164</v>
       </c>
       <c r="C3" t="n">
-        <v>4554823.556458386</v>
+        <v>2298426.156798521</v>
       </c>
       <c r="D3" t="n">
-        <v>2134.203260342928</v>
+        <v>1516.056119277423</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.850129052874958</v>
+        <v>-1.447441342303967</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1259.051805435169</v>
+        <v>1340.414417911202</v>
       </c>
       <c r="C4" t="n">
-        <v>2532462.857568964</v>
+        <v>2939842.634279131</v>
       </c>
       <c r="D4" t="n">
-        <v>1591.371376382321</v>
+        <v>1714.596930558063</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.696651479156849</v>
+        <v>-2.130443143330998</v>
       </c>
     </row>
     <row r="5">
